--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value181.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value181.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.218843633425845</v>
+        <v>0.7085713744163513</v>
       </c>
       <c r="B1">
-        <v>1.556356674440696</v>
+        <v>3.703454971313477</v>
       </c>
       <c r="C1">
-        <v>2.301714455092873</v>
+        <v>6.710021495819092</v>
       </c>
       <c r="D1">
-        <v>3.617963810948148</v>
+        <v>5.046497344970703</v>
       </c>
       <c r="E1">
-        <v>0.5011553178832194</v>
+        <v>2.393457651138306</v>
       </c>
     </row>
   </sheetData>
